--- a/data/ARCE.xlsx
+++ b/data/ARCE.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -410,10 +440,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>For ARCE majors: PHYS 141, MATH 142; for ARCH and CM majors: PHYS 121 or PHYS 141, MATH 142 or MATH 182.</t>
+          <t>For ARCE PHYS 141, MATH 142; for ARCH and CM PHYS 121 or PHYS 141, MATH 142 or MATH 182.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -432,10 +477,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ARCE 211 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 211 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ARCE 212 (C- or better required for ARCE Majors). Concurrent for ARCE majors: ARCE 224.</t>
+          <t>ARCE 212 (C- or better required for ARCE Majors). Concurrent for ARCE ARCE 224.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -481,7 +556,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>F, SPConcurrent: ARCE 223.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ARCE 223.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>F, SP</t>
         </is>
       </c>
     </row>
@@ -498,10 +588,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ARCE 212.</t>
+          <t>ARCE 212.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ARCE 212 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 212 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ARCH 133, CM 115.</t>
+          <t>ARCH 133, CM 115.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ARCE 223 and ARCE 227 (C- or better required for ARCE Majors). Concurrent for ARCE majors: ARCE 352.</t>
+          <t>ARCE 223 and ARCE 227 (C- or better required for ARCE Majors). Concurrent for ARCE ARCE 352.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ARCE 223 (C- or better required for ARCE Majors). Corequisite for ARCE majors: ARCE 371. Corequisite for ARCE minors: ARCE 226.</t>
+          <t>ARCE 223 (C- or better required for ARCE Majors). Corequisite for ARCE ARCE 371. Corequisite for ARCE ARCE 226.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ARCE 371 for ARCE majors (with C- or better); ARCE 223 and ARCE 226 for ARCE minors.</t>
+          <t>ARCE 371 for ARCE majors (with C- or better); ARCE 223 and ARCE 226 for ARCE minors.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ARCE 371 for ARCE majors (with C- or better); ARCE 223 and ARCE 226 for ARCE minors.</t>
+          <t>ARCE 371 for ARCE majors (with C- or better); ARCE 223 and ARCE 226 for ARCE minors.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -696,12 +921,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ARCE 302 (C- or better required for ARCE Majors). Concurrent: ARCE 353.</t>
+          <t>ARCE 302 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ARCE 353.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ARCE 226.</t>
+          <t>ARCE 226.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -740,12 +995,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ARCE 315. Concurrent: ARCH 353.</t>
+          <t>ARCE 315.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ARCH 353.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -762,12 +1032,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CSC 231 or CSC 234. Concurrent: ARCE 302.</t>
+          <t>CSC 231 or CSC 234.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ARCE 302.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -784,12 +1069,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ARCE 352 (C- or better required for ARCE Majors). Concurrent: ARCE 306.</t>
+          <t>ARCE 352 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ARCE 306.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -806,12 +1106,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MATH 244 and ARCE 353 (C- or better required for ARCE Majors). Concurrent: ARCE 412.</t>
+          <t>MATH 244 and ARCE 353 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ARCE 412.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -828,12 +1143,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ARCE 223, ARCE 227 (C- or better required for ARCE Majors), and third year standing in Architectural Engineering. Corequisite: ARCE 302.</t>
+          <t>ARCE 223, ARCE 227 (C- or better required for ARCE Majors), and third year standing in Architectural Engineering.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>ARCE 302.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -850,10 +1180,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ARCE 257, ARCE 302, ARCE 303, ARCE 352 and ARCE 371 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 257, ARCE 302, ARCE 303, ARCE 352 and ARCE 371 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ARCE 372 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 372 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -916,12 +1291,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fourth year standing. Recommended: Third year design and analysis courses; ARCE 302, ARCE 372.</t>
+          <t>Fourth year standing.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Third year design and analysis courses; ARCE 302, ARCE 372.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -938,12 +1328,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ME 212; MATH 244; and ARCE 306 (C- or better required for ARCE Majors). Concurrent: ARCE 354.</t>
+          <t>ME 212; MATH 244; and ARCE 306 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ARCE 354.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ARCE 303, ARCE 304, ARCE 305, ARCE 444, ARCE 372 or ARCE 451 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 303, ARCE 304, ARCE 305, ARCE 444, ARCE 372 or ARCE 451 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -982,10 +1402,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARCE 212 (C- or better required for ARCE Majors); GEOL 201.</t>
+          <t>ARCE 212 (C- or better required for ARCE Majors); GEOL 201.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ARCE 421 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 421 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ARCE 422 and ARCE 444 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 422 and ARCE 444 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1048,10 +1513,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ARCE 371 and ARCE 302 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 371 and ARCE 302 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ARCE 257, ARCE 304, ARCE 305, and ARCE 371 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 257, ARCE 304, ARCE 305, and ARCE 371 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ARCE 257, ARCE 444, and ARCE 372 or ARCE 451 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 257, ARCE 444, and ARCE 372 or ARCE 451 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ARCE 372, ARCE 451, ARCE 452, ARCE 483 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 372, ARCE 451, ARCE 452, ARCE 483 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1136,10 +1661,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ARCE 372 or ARCE 451 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 372 or ARCE 451 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1163,6 +1703,21 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1185,6 +1740,21 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ARCE 372, ARCE 422, ARCE 444 and ARCE 451 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 372, ARCE 422, ARCE 444 and ARCE 451 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1229,6 +1814,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1251,6 +1851,21 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ARCE 372, ARCE 412 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 372, ARCE 412 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1295,6 +1925,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1317,6 +1962,21 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1334,10 +1994,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ARCE 306, ARCE 353.</t>
+          <t>ARCE 306, ARCE 353.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ARCE 306 and ARCE 353.</t>
+          <t>ARCE 306 and ARCE 353.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ARCE 502.</t>
+          <t>ARCE 502.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1400,10 +2105,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MATH 244, ARCE 306, ARCE 501.</t>
+          <t>MATH 244, ARCE 306, ARCE 501.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ARCE 452, ARCE 503, ARCE 504.</t>
+          <t>ARCE 452, ARCE 503, ARCE 504.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1449,6 +2184,21 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1466,12 +2216,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ARCE 371 (C- or better required for ARCE Majors) or graduate standing. Corequisite: ARCE 412 or graduate standing.</t>
+          <t>ARCE 371 (C- or better required for ARCE Majors) or graduate standing.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>ARCE 412 or graduate standing.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1488,10 +2253,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ARCE 303, ARCE 304, ARCE 305, ARCE 412, ARCE 444 (C- or better required for ARCE Majors).</t>
+          <t>ARCE 303, ARCE 304, ARCE 305, ARCE 412, ARCE 444 (C- or better required for ARCE Majors).</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1515,6 +2295,21 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1537,6 +2332,21 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1554,12 +2364,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Consent of instructor. Recommended: ARCE 371, ARCE 372, ARCE 452, and ARCE 483.</t>
+          <t>Consent of instructor.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ARCE 371, ARCE 372, ARCE 452, and ARCE 483.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
